--- a/GCD_2020_Final_74_Github.xlsx
+++ b/GCD_2020_Final_74_Github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mch1m13\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F63EC97-E7F3-42C4-875C-369F40CE2188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D076E30-A44B-4BC9-8CAA-87747BF9095B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="261">
   <si>
     <t>Country</t>
   </si>
@@ -410,6 +410,9 @@
     <t>Dummy variable equal to 1 if a common law country (i.e. leg_orig = 1) and zero otherwise.</t>
   </si>
   <si>
+    <t>bor_edu</t>
+  </si>
+  <si>
     <t>cred_card</t>
   </si>
   <si>
@@ -812,10 +815,7 @@
     <t>Linear share stat. significant and negative in all cases</t>
   </si>
   <si>
-    <t xml:space="preserve">.. </t>
-  </si>
-  <si>
-    <t>Real GDP per person  (in 2011 US$). Data for year 1970.</t>
+    <t xml:space="preserve">Real GDP per person  (in 2011 US$). </t>
   </si>
   <si>
     <t>Average growth rate of real GDP per person (% p.a.). 1970-2010.</t>
@@ -2052,6 +2052,372 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13477875" y="190500"/>
+          <a:ext cx="3333750" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13420725" y="2895600"/>
+          <a:ext cx="3200400" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16925925" y="171450"/>
+          <a:ext cx="3200400" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16954500" y="2886075"/>
+          <a:ext cx="3200400" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20431125" y="142875"/>
+          <a:ext cx="3200400" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20440650" y="2924175"/>
+          <a:ext cx="3200400" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2570,7 +2936,7 @@
   <dimension ref="A2:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,43 +2948,43 @@
   <sheetData>
     <row r="2" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>79</v>
@@ -2626,18 +2992,18 @@
     </row>
     <row r="6" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>259</v>
@@ -2648,7 +3014,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>258</v>
@@ -2659,7 +3025,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -2670,7 +3036,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -2681,18 +3047,18 @@
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>120</v>
@@ -2703,13 +3069,13 @@
     </row>
     <row r="13" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2717,15 +3083,15 @@
         <v>118</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>260</v>
@@ -2736,10 +3102,10 @@
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>85</v>
@@ -2747,7 +3113,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>82</v>
@@ -2758,32 +3124,32 @@
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>83</v>
@@ -2791,7 +3157,7 @@
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>86</v>
@@ -2802,35 +3168,35 @@
     </row>
     <row r="22" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,15 +3212,15 @@
         <v>122</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>79</v>
@@ -2862,10 +3228,10 @@
     </row>
     <row r="28" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>79</v>
@@ -2876,7 +3242,7 @@
         <v>117</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>80</v>
@@ -2978,7 +3344,7 @@
         <v>108</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3022,10 +3388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,101 +3402,105 @@
     <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="10" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="14" width="6" customWidth="1"/>
-    <col min="15" max="16" width="5.5703125" customWidth="1"/>
-    <col min="17" max="17" width="6" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" customWidth="1"/>
-    <col min="24" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" customWidth="1"/>
-    <col min="28" max="28" width="4" customWidth="1"/>
-    <col min="29" max="29" width="4.5703125" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" customWidth="1"/>
-    <col min="31" max="31" width="5" customWidth="1"/>
-    <col min="32" max="32" width="4.28515625" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" customWidth="1"/>
-    <col min="34" max="34" width="4" customWidth="1"/>
-    <col min="35" max="36" width="3.42578125" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" customWidth="1"/>
-    <col min="38" max="38" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="11" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="15" width="6" customWidth="1"/>
+    <col min="16" max="17" width="5.5703125" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" customWidth="1"/>
+    <col min="22" max="22" width="3" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" customWidth="1"/>
+    <col min="25" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="30" max="30" width="4.5703125" customWidth="1"/>
+    <col min="31" max="31" width="4.42578125" customWidth="1"/>
+    <col min="32" max="32" width="5" customWidth="1"/>
+    <col min="33" max="33" width="4.28515625" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" customWidth="1"/>
+    <col min="35" max="35" width="4" customWidth="1"/>
+    <col min="36" max="37" width="3.42578125" customWidth="1"/>
+    <col min="38" max="38" width="6.7109375" customWidth="1"/>
+    <col min="39" max="39" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J1" t="s">
         <v>130</v>
       </c>
       <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" t="s">
+        <v>243</v>
+      </c>
+      <c r="P1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>242</v>
+      </c>
+      <c r="R1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" t="s">
         <v>138</v>
       </c>
-      <c r="L1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R1" t="s">
-        <v>118</v>
-      </c>
-      <c r="S1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3150,28 +3520,28 @@
         <v>9197.5529875773773</v>
       </c>
       <c r="G2">
+        <v>11.64001</v>
+      </c>
+      <c r="H2">
         <v>8.8819905000000006</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>8.1275180000000002</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>13.754340559999999</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.76256487788074001</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3.2925800176767188</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>79</v>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2" t="s">
         <v>79</v>
@@ -3179,24 +3549,27 @@
       <c r="P2" t="s">
         <v>79</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2">
         <v>1.08</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3.3694667489246846</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>2</v>
       </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U25" si="0">IF(T2=1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2">
+        <f t="shared" ref="V2:V25" si="0">IF(U2=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3216,53 +3589,56 @@
         <v>2634.5004599985664</v>
       </c>
       <c r="G3">
+        <v>5.0712979999999996</v>
+      </c>
+      <c r="H3">
         <v>16.6068465</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.64607104999999998</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>24.24930367</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2.1394339222652143</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2.0669527162205084</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>2.7395800000000001</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2.19</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3.581493333333333</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2.347826</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.49291640600451836</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3282,53 +3658,56 @@
         <v>1834.1315665301197</v>
       </c>
       <c r="G4">
+        <v>7.2553979999999996</v>
+      </c>
+      <c r="H4">
         <v>5.9203465</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.93191645000000001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>11.98086316</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>3.0073990143305398</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3.4220092296600333</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>79</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1.56</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1.9651500000000002</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1.5416669999999999</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>6.8662564870884308</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>2</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3348,53 +3727,56 @@
         <v>5149.0180627974005</v>
       </c>
       <c r="G5">
+        <v>6.9893559999999999</v>
+      </c>
+      <c r="H5">
         <v>18.18439</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5.172752</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>45.609484569999999</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1.9922635155011637</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>6.205394109090169</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>2.2708300000000001</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>4.74</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>8.0962699999999987</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>4.04</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3.6804310947768459</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>2</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3414,53 +3796,56 @@
         <v>14411.224655073775</v>
       </c>
       <c r="G6">
+        <v>1.708105</v>
+      </c>
+      <c r="H6">
         <v>9.1330530000000003</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>30.6447</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>45.632869399999997</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>1.8358054540676734</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4.5547645642207222</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>6.3593700000000002</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3.76</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>6.6045166666666661</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4.76</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.9303110056145469</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>2</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3480,53 +3865,56 @@
         <v>14772.246078765304</v>
       </c>
       <c r="G7">
+        <v>2.1225339999999999</v>
+      </c>
+      <c r="H7">
         <v>10.5727455</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11.31218</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>42.645177160000003</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-0.34013528687240407</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3.5535322886246918</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>79</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>9.26</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>10.391103333333334</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1.6</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.4154226983087712</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>3</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3546,53 +3934,56 @@
         <v>1298.9743226359203</v>
       </c>
       <c r="G8">
+        <v>9.9069909999999997</v>
+      </c>
+      <c r="H8">
         <v>4.0621285</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.8228011499999999</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>11.967723919999999</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>2.5892006947222441</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3.7714820146560681</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
       <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>4.75</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>79</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.6663283333333333</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.5</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>8.9635712340652773</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>2</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3612,53 +4003,56 @@
         <v>656.66203553515402</v>
       </c>
       <c r="G9">
+        <v>17.647099999999998</v>
+      </c>
+      <c r="H9">
         <v>1.5997215</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.44591164999999999</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>14.666278719999999</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>2.5521983323899464</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4.2502709085291084</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>79</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1.23</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1.4966626666666667</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>19.04562513495117</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3678,28 +4072,28 @@
         <v>2368.4781672035106</v>
       </c>
       <c r="G10">
+        <v>8.113448</v>
+      </c>
+      <c r="H10">
         <v>23.562519999999999</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.5144372000000001</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>10.065799589999999</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1.821614111789027</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1.754874297550747</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>79</v>
+      <c r="N10">
+        <v>0</v>
       </c>
       <c r="O10" t="s">
         <v>79</v>
@@ -3707,24 +4101,27 @@
       <c r="P10" t="s">
         <v>79</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10">
         <v>0.7</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>5.3464892826936934</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>2</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3744,53 +4141,56 @@
         <v>2455.9512487357138</v>
       </c>
       <c r="G11">
+        <v>12.495430000000001</v>
+      </c>
+      <c r="H11">
         <v>3.1994419999999999</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.1713795999999999</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>11.04003339</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>2.8196584217619929</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>3.034953999519348</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>5.65625</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2.39</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4.3310166666666667</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>7.889751268720719</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>2</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3810,28 +4210,28 @@
         <v>1759.3196549076276</v>
       </c>
       <c r="G12">
+        <v>4.812735</v>
+      </c>
+      <c r="H12">
         <v>4.2761810000000002</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3.2635589999999999</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3.9305129609999998</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>3.0033327521644924</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2.2005010975731731</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>79</v>
+      <c r="N12">
+        <v>0</v>
       </c>
       <c r="O12" t="s">
         <v>79</v>
@@ -3839,24 +4239,27 @@
       <c r="P12" t="s">
         <v>79</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
+      <c r="Q12" t="s">
+        <v>79</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>10.035426627379197</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>2</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3876,53 +4279,56 @@
         <v>9529.7986055882229</v>
       </c>
       <c r="G13">
+        <v>4.9467359999999996</v>
+      </c>
+      <c r="H13">
         <v>8.4039300000000008</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>12.031515500000001</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>104.3722709</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1.2748078663700313</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1.8637325167655949</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
       <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
         <v>5.6875</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>5.23</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>5.3467133333333337</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>3.2836014942659832</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
       <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>3</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3942,53 +4348,56 @@
         <v>11176.501370341948</v>
       </c>
       <c r="G14">
+        <v>10.10834</v>
+      </c>
+      <c r="H14">
         <v>13.755765</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>11.95246</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>31.92678308</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.8503595139829276</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4.1300138326791611</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>5.2968700000000002</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>4.37</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>6.5284933333333326</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>8</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3.74811384058868</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
       <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <v>2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4008,53 +4417,56 @@
         <v>657.57458370964241</v>
       </c>
       <c r="G15">
+        <v>10.837490000000001</v>
+      </c>
+      <c r="H15">
         <v>1.9577979999999999</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.792862</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.788092909</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>3.0269533004170994</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.0002450048923486</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
       <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>3.6916600000000002</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>79</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>23.063116082665946</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
       <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>2</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4074,53 +4486,56 @@
         <v>5837.3112593081096</v>
       </c>
       <c r="G16">
+        <v>7.1618000000000004</v>
+      </c>
+      <c r="H16">
         <v>3.7833589999999999</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3.2590365000000001</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>7.0705622229999996</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>2.8235759838674244</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3.6239685501371102</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>2.9812500000000002</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3.93</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>79</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.625</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>38.189339128280309</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
       <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>2</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4140,53 +4555,56 @@
         <v>10756.755031515098</v>
       </c>
       <c r="G17">
+        <v>9.1853470000000002</v>
+      </c>
+      <c r="H17">
         <v>4.9806809999999997</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.6368780000000001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>40.791270789999999</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2.1670886984571007</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>4.3916962146759015</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>4.3489500000000003</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>3.57</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>5.8013733333333333</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
       <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>9.0444451339462777</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>2</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4206,53 +4624,56 @@
         <v>15666.415061974038</v>
       </c>
       <c r="G18">
+        <v>7.0752389999999998</v>
+      </c>
+      <c r="H18">
         <v>3.3357945</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>4.1991484999999997</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>9.9532480050000007</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>2.4305764393783962</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>3.4426600138346366</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
       <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
         <v>5.3755199999999999</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>79</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>4.8490566666666668</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
       <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>28.172509552112331</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
       <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
         <v>2</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4272,53 +4693,56 @@
         <v>2950.6212163929422</v>
       </c>
       <c r="G19">
+        <v>10.665430000000001</v>
+      </c>
+      <c r="H19">
         <v>6.9265420000000004</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.5757547000000001</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>10.30656522</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2.6343909677738817</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>5.7575866911146356</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>3.6953100000000001</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>3.34</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>5.0854400000000002</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1.086957</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>9.4397916455088211</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4338,53 +4762,56 @@
         <v>6521.2240673716005</v>
       </c>
       <c r="G20">
+        <v>14.96171</v>
+      </c>
+      <c r="H20">
         <v>12.9933</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6.6076169999999994</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>21.037456540000001</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2.5299194403709264</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2.5298116604487135</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>2.8411400000000002</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>2.6</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>4.826435</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2.5</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1.4839486521499861</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
       <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>2</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4404,28 +4831,28 @@
         <v>1331.7413794780632</v>
       </c>
       <c r="G21">
+        <v>12.274900000000001</v>
+      </c>
+      <c r="H21">
         <v>2.2018304999999998</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.6194405000000001</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4.5073309520000002</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>2.4408312039379889</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2.5406979799270628</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
-        <v>79</v>
+      <c r="N21">
+        <v>0</v>
       </c>
       <c r="O21" t="s">
         <v>79</v>
@@ -4433,24 +4860,27 @@
       <c r="P21" t="s">
         <v>79</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
+      <c r="Q21" t="s">
+        <v>79</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>15.08035252314424</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
       <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>2</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4470,53 +4900,56 @@
         <v>4531.0505387157982</v>
       </c>
       <c r="G22">
+        <v>9.7477979999999995</v>
+      </c>
+      <c r="H22">
         <v>7.0329955000000002</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.9710745000000003</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>31.835986179999999</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>2.0167993350513922</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>3.4529220104217542</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>5.7604100000000003</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3.68</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3.8693766666666662</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>8.1199999999999992</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>2.4475077293349754</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4536,53 +4969,56 @@
         <v>8444.8464525888376</v>
       </c>
       <c r="G23">
+        <v>12.18144</v>
+      </c>
+      <c r="H23">
         <v>10.841687</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1.0455141999999999</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>36.504599319999997</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1.864881811067264</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2.4486291607220969</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>3.6666599999999998</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>3.3</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>6.7065400000000004</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>7.4530596866906853</v>
       </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
       <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
         <v>2</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4602,53 +5038,56 @@
         <v>7048.5402227557979</v>
       </c>
       <c r="G24">
+        <v>10.262650000000001</v>
+      </c>
+      <c r="H24">
         <v>9.5065484999999903</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>10.3472565</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>23.437768009999999</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.95703973136420117</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>5.0584415472470798</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>4.6968699999999997</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>4.55</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>8.0770399999999984</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>10</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>3.7398260146875395</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4668,53 +5107,56 @@
         <v>11743.4583536875</v>
       </c>
       <c r="G25">
+        <v>4.0906120000000001</v>
+      </c>
+      <c r="H25">
         <v>9.0187165</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2.8881480000000002</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>72.46039691</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3.492622119495695</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>6.2624031702677394</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
       <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
         <v>4.0833300000000001</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>5.39</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>10.375203333333333</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.36</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>8.9940753478227997E-2</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
       <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>2</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4734,53 +5176,56 @@
         <v>1367.9243485161339</v>
       </c>
       <c r="G26">
+        <v>9.4957320000000003</v>
+      </c>
+      <c r="H26">
         <v>2.1475995000000001</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6.1831799999999999E-2</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>11.344277959999999</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>2.9550121567310859</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2.9429246187210079</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>4.6666600000000003</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>79</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3.2195066666666663</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.83333330000000005</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>6.0878689043311729</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <v>2</v>
       </c>
-      <c r="U26">
-        <f t="shared" ref="U26:U51" si="1">IF(T26=1,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <f t="shared" ref="V26:V51" si="1">IF(U26=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4800,53 +5245,56 @@
         <v>1142.9047464021914</v>
       </c>
       <c r="G27">
+        <v>9.6042620000000003</v>
+      </c>
+      <c r="H27">
         <v>7.6088420000000001</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.4560014999999999</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>8.3463435019999999</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2.9651983833074533</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>4.6737113680158346</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>4.4713500000000002</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>2.58</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>3.3112033333333333</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.32</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>10.109455422468979</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4866,53 +5314,56 @@
         <v>1505.3003096598825</v>
       </c>
       <c r="G28">
+        <v>2.283963</v>
+      </c>
+      <c r="H28">
         <v>3.2086320000000002</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.64921530000000005</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>12.58934734</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>2.3693212675151534</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3.6081336194818663</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>3</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.61</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.0131073333333334</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1.0833330000000001</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>4.6724553616049613</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
       <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <v>2</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4932,53 +5383,56 @@
         <v>15931.782565481337</v>
       </c>
       <c r="G29">
+        <v>2.720882</v>
+      </c>
+      <c r="H29">
         <v>15.668060000000001</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>15.70613</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>58.505941010000001</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
       <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>1.0364852191445284</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>3.6964258352915453</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
         <v>79</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>5.15</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>7.2380966666666664</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>9.52</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1.8560809929629066E-2</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
         <v>2</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4998,53 +5452,56 @@
         <v>14852.484887943472</v>
       </c>
       <c r="G30">
+        <v>18.898569999999999</v>
+      </c>
+      <c r="H30">
         <v>8.9839680000000008</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>15.397639999999999</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>20.06198483</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2.0831806335841785</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>4.5657335349491666</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
       <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>5.4140600000000001</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>5.87</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>7.7108600000000003</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.68</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>3.3592582281304084</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
       <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <v>2</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5064,28 +5521,28 @@
         <v>8224.477162750396</v>
       </c>
       <c r="G31">
+        <v>7.6290120000000003</v>
+      </c>
+      <c r="H31">
         <v>30.225729999999999</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.5046930000000001</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>18.775659810000001</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.9012867642976421</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>5.1282911565568714</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
-        <v>79</v>
+      <c r="N31">
+        <v>0</v>
       </c>
       <c r="O31" t="s">
         <v>79</v>
@@ -5093,24 +5550,27 @@
       <c r="P31" t="s">
         <v>79</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="s">
+        <v>79</v>
+      </c>
+      <c r="R31">
         <v>1.1200000000000001</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>9.3863699173369746</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
       <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <v>3</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5130,53 +5590,56 @@
         <v>2140.0045733335169</v>
       </c>
       <c r="G32">
+        <v>12.723509999999999</v>
+      </c>
+      <c r="H32">
         <v>11.335805000000001</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.50717325000000002</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>28.615846860000001</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>2.065301377083991</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>3.5063054194817171</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
         <v>79</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1.03</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>2.178534</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2.08</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1.3688980293921023</v>
       </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
       <c r="T32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5196,53 +5659,56 @@
         <v>3991.8529650138157</v>
       </c>
       <c r="G33">
+        <v>12.51802</v>
+      </c>
+      <c r="H33">
         <v>10.9797455</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2.9962014999999997</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>22.29070875</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>2.2071180728534552</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>2.909538388252257</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
       <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
         <v>2.9994700000000001</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>3.6</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>5.6271200000000006</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>1.5652170000000001</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>2.491892936447111</v>
       </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
       <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
         <v>2</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5262,53 +5728,56 @@
         <v>812.61462688106246</v>
       </c>
       <c r="G34">
+        <v>6.0289409999999997</v>
+      </c>
+      <c r="H34">
         <v>1.3379675</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.91233555000000011</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>7.1479816639999996</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>3.2711879678241118</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>3.2895916501681035</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
       <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
         <v>5.8333300000000001</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.853132</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.69565220000000005</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>8.7855025096440738</v>
       </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
       <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <v>2</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5328,53 +5797,56 @@
         <v>4437.1617866391434</v>
       </c>
       <c r="G35">
+        <v>6.2997949999999996</v>
+      </c>
+      <c r="H35">
         <v>1.5356259999999999</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.41748715000000003</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>24.672260000000001</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>2.7224154353559178</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>2.5156050125757856</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
         <v>4.1093700000000002</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>2.29</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>79</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>2.44</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1.1789278988144332</v>
       </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
       <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5394,53 +5866,56 @@
         <v>9559.0519004043217</v>
       </c>
       <c r="G36">
+        <v>6.9907959999999996</v>
+      </c>
+      <c r="H36">
         <v>11.974410000000001</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>10.815306499999998</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>20.281674800000001</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>1.9942375160341821</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>3.0071285622460509</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>3.2343700000000002</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>5.92</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>8.1421866666666673</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>3.9565220000000001</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>2.3690679658330871</v>
       </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
       <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
         <v>2</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5460,53 +5935,56 @@
         <v>5733.1098984809605</v>
       </c>
       <c r="G37">
+        <v>29.94483</v>
+      </c>
+      <c r="H37">
         <v>11.1509</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>3.178496</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>32.717730959999997</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>2.4170010205993298</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>2.9705828428268437</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
         <v>2.9676999999999998</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>7.07</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>8.2298966666666669</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>3</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.93780250481595628</v>
       </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
       <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
         <v>2</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5526,53 +6004,56 @@
         <v>16837.512447756861</v>
       </c>
       <c r="G38">
+        <v>5.3527449999999996</v>
+      </c>
+      <c r="H38">
         <v>10.1080965</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>11.625640000000001</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>19.193532709999999</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>-2.7776878210911182E-2</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>3.4960419893264763</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
         <v>79</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>9.24</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>9.5798833333333331</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>1.0416669999999999</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>3.0547793827158931</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
       <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <v>2</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5592,53 +6073,56 @@
         <v>1377.8031345346835</v>
       </c>
       <c r="G39">
+        <v>5.0702579999999999</v>
+      </c>
+      <c r="H39">
         <v>8.2879585000000002</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2.0021475</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>9.7873700009999904</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>2.5973748708975455</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>4.5613733132680272</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
         <v>79</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>1.49</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>79</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>0.125</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>8.6875380896688252</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
       <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <v>2</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5658,53 +6142,56 @@
         <v>2151.1848979427082</v>
       </c>
       <c r="G40">
+        <v>6.1186680000000004</v>
+      </c>
+      <c r="H40">
         <v>3.509525</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.93696089999999999</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>19.752385109999999</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
       <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>2.845779959752913</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>4.1376508474349976</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
       <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
         <v>4.7473900000000002</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>1.97</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>2.1716566666666668</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>1.92</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>2.4856442446331277</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
       <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
         <v>2</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5724,53 +6211,56 @@
         <v>1427.5161454219619</v>
       </c>
       <c r="G41">
+        <v>23.95937</v>
+      </c>
+      <c r="H41">
         <v>5.0760695</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>1.4019246000000001</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>3.5362099790000001</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
       <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
         <v>2.1112171487413489</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>3.1617210149765027</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
       <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
         <v>5.4166600000000003</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>1.32</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>3.2121433333333336</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>0.12</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>14.580978797997583</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
       <c r="T41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5790,53 +6280,56 @@
         <v>11605.929148565232</v>
       </c>
       <c r="G42">
+        <v>18.02768</v>
+      </c>
+      <c r="H42">
         <v>10.478541</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>10.6065755</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>125.24381270000001</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>2.0987578668700646</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>5.2308000417856073</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
         <v>6.9226099999999997</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>5.14</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>6.5390933333333336</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>7.0416670000000003</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>3.8453797784438839</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
       <c r="T42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5856,53 +6349,56 @@
         <v>8284.9615782380879</v>
       </c>
       <c r="G43">
+        <v>4.3919730000000001</v>
+      </c>
+      <c r="H43">
         <v>17.80133</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>3.642115</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>25.866059329999999</v>
       </c>
-      <c r="J43">
-        <v>0.33333333333333298</v>
-      </c>
       <c r="K43">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="L43">
         <v>1.211005041214009</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>2.6252500534057637</v>
       </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
       <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
         <v>4.32552</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>5.26</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>79</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>6.125</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>0.32676796776792022</v>
       </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5922,53 +6418,56 @@
         <v>2129.9193939253282</v>
       </c>
       <c r="G44">
+        <v>17.21529</v>
+      </c>
+      <c r="H44">
         <v>6.5565360000000004</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>2.18724205</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>8.5084838279999904</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>3.0011511580434305</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>3.6659799814224243</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
       <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>4.6390599999999997</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>79</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>2.9247999999999998</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
       <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
         <v>8.3890397638109739</v>
       </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
       <c r="T44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5988,53 +6487,56 @@
         <v>13249.374842784797</v>
       </c>
       <c r="G45">
+        <v>7.5561990000000003</v>
+      </c>
+      <c r="H45">
         <v>17.395630000000001</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>5.0994345000000001</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>111.4940971</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>1.5275116683667425</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>4.0544094294309634</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
       <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>6.2588499999999998</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>5.35</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>7.2978300000000003</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>3.6190479999999998</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>0.91467822937957755</v>
       </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
       <c r="T45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -6054,53 +6556,56 @@
         <v>1201.992104244998</v>
       </c>
       <c r="G46">
+        <v>5.6113949999999999</v>
+      </c>
+      <c r="H46">
         <v>3.7155269999999998</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>0.78506410000000004</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>18.177773370000001</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>2.8032979564524423</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>3.9899635655539369</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
       <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>4.3463500000000002</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>2.34</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>79</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
       <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
         <v>8.5554441176707154</v>
       </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
       <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
         <v>2</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -6120,53 +6625,56 @@
         <v>16749.117098150837</v>
       </c>
       <c r="G47">
+        <v>13.193149999999999</v>
+      </c>
+      <c r="H47">
         <v>12.266427</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>38.954665000000006</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>22.187657949999998</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>1.848103744640587</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>2.7836512327194227</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
       <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
         <v>5.26302</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>3.95</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>5.7382266666666668</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>7.2</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>0.31682508003951393</v>
       </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
       <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
         <v>2</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -6186,53 +6694,56 @@
         <v>1828.7038002433044</v>
       </c>
       <c r="G48">
+        <v>39.086190000000002</v>
+      </c>
+      <c r="H48">
         <v>12.283226000000001</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1.6387740000000002</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>7.6220333910000004</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>0.33333333333333298</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>3.1886279400822337</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>3.2307000756263724</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
       <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
         <v>2.9739499999999999</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>2.58</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>2.9251066666666667</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>0.72727269999999999</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>17.153099979456599</v>
       </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
       <c r="T48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6252,53 +6763,56 @@
         <v>4554.5164248420706</v>
       </c>
       <c r="G49">
+        <v>10.20377</v>
+      </c>
+      <c r="H49">
         <v>17.313320000000001</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>1.5837135</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>47.531278880000002</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>1.794448916104777</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>5.5860350131988552</v>
       </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
         <v>79</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>3.81</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>79</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
       <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
         <v>7.4636873646930253</v>
       </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
       <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
         <v>2</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -6318,53 +6832,56 @@
         <v>3105.8580421117708</v>
       </c>
       <c r="G50">
+        <v>20.77186</v>
+      </c>
+      <c r="H50">
         <v>5.4733305000000003</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>2.8013754999999998</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>7.6197639209999997</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
       <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
         <v>3.050159607851799</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>1.7574175000190735</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
       <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
         <v>4.13645</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>4.09</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>6.2428400000000002</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>1.2</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>9.8306153459004104</v>
       </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
       <c r="T50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -6384,28 +6901,28 @@
         <v>45174.720432747599</v>
       </c>
       <c r="G51">
+        <v>7.3329880000000003</v>
+      </c>
+      <c r="H51">
         <v>7.1615304999999996</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>14.220425000000001</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>27.698113110000001</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
       <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
         <v>4.0163495179557733</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>6.3095969420212956</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
-        <v>79</v>
+      <c r="N51">
+        <v>0</v>
       </c>
       <c r="O51" t="s">
         <v>79</v>
@@ -6413,24 +6930,27 @@
       <c r="P51" t="s">
         <v>79</v>
       </c>
-      <c r="Q51">
-        <v>0</v>
+      <c r="Q51" t="s">
+        <v>79</v>
       </c>
       <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
         <v>33.033342325290654</v>
       </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
       <c r="T51">
         <v>1</v>
       </c>
       <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -6450,53 +6970,56 @@
         <v>45235.942666793548</v>
       </c>
       <c r="G52">
+        <v>5.5661500000000004</v>
+      </c>
+      <c r="H52">
         <v>20.209565000000001</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>61.393245</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>89.399739350000004</v>
       </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
       <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
         <v>1.3615967143514016</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>4.9844000074598513</v>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
       <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
         <v>9.4296799999999994</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>10.119999999999999</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>12.836800000000002</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>10</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>2.5164651643087508</v>
       </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <f t="shared" ref="U52:U75" si="2">IF(T52=1,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <f t="shared" ref="V52:V75" si="2">IF(U52=1,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -6516,53 +7039,56 @@
         <v>41433.323039181683</v>
       </c>
       <c r="G53">
+        <v>7.4326509999999999</v>
+      </c>
+      <c r="H53">
         <v>23.673195</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>74.700754999999987</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>121.4862107</v>
       </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
       <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
         <v>1.1690745127144153</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>5.219675410877576</v>
       </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
       <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
         <v>9.6718700000000002</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>10.5</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>13.035566666666668</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>10</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>2.5857745262487959</v>
       </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
       <c r="T53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -6582,53 +7108,56 @@
         <v>35120.503093462241</v>
       </c>
       <c r="G54">
+        <v>2.1870270000000001</v>
+      </c>
+      <c r="H54">
         <v>7.0230040000000002</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>65.258404999999996</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>192.0865191</v>
       </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
       <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
         <v>0.52859452216669789</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>3.5475007387307986</v>
       </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
       <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
         <v>9.3671799999999994</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>9.2200000000000006</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>12.5578</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>10</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>1.7563431667022754E-2</v>
       </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
       <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
         <v>3</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -6648,53 +7177,56 @@
         <v>49288.498047461988</v>
       </c>
       <c r="G55">
+        <v>9.488785</v>
+      </c>
+      <c r="H55">
         <v>21.693860000000001</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>61.034784999999999</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>159.38165369999999</v>
       </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
       <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
         <v>0.98365252820824567</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>5.2328638296860923</v>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
       <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
         <v>9.8046799999999994</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>12</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>13.048333333333334</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>10</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>0.85669211647004295</v>
       </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
       <c r="T55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -6714,53 +7246,56 @@
         <v>31250.085939019689</v>
       </c>
       <c r="G56">
+        <v>6.8608919999999998</v>
+      </c>
+      <c r="H56">
         <v>17.397449999999999</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>56.224490000000003</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>88.794495769999997</v>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
       <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
         <v>1.1216550762662765</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>3.8951983650525404</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
       <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
         <v>6.3609299999999998</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>9.25</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>11.8947</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>3.04</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>2.2370189525578493E-2</v>
       </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
       <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
         <v>3</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -6780,53 +7315,56 @@
         <v>37716.021134717746</v>
       </c>
       <c r="G57">
+        <v>1.9936499999999999</v>
+      </c>
+      <c r="H57">
         <v>13.135624999999999</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>48.681640000000002</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>63.34742241</v>
       </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
       <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
         <v>0.30835665552909219</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>5.5054199894269304</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
       <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
         <v>9.7109299999999994</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>8.43</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>10.700360000000002</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>10</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>2.4951881302087666E-2</v>
       </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
       <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
         <v>2</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -6846,53 +7384,56 @@
         <v>43278.448034835063</v>
       </c>
       <c r="G58">
+        <v>4.3800470000000002</v>
+      </c>
+      <c r="H58">
         <v>20.214590000000001</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>40.701630000000002</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>102.47671339999999</v>
       </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
       <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
         <v>0.29713492188818369</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>8.0175453821818028</v>
       </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
       <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
         <v>9.6796799999999994</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>10.130000000000001</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>12.192700000000002</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>10</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>0.59141269963025533</v>
       </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
       <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
         <v>4</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -6912,53 +7453,56 @@
         <v>41658.916649625025</v>
       </c>
       <c r="G59">
+        <v>2.1690839999999998</v>
+      </c>
+      <c r="H59">
         <v>15.580349999999999</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>40.760674999999999</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>99.911994160000006</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
       <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
         <v>6.561469847388654E-2</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>4.523640036582945</v>
       </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
       <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
         <v>9.5885400000000001</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>9.48</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>13.365133333333333</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>10</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>9.5726342333476142E-2</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
       <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
         <v>3</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6978,53 +7522,56 @@
         <v>48111.41423817294</v>
       </c>
       <c r="G60">
+        <v>8.4401259999999905</v>
+      </c>
+      <c r="H60">
         <v>17.008790000000001</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>50.812839999999994</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>92.415119860000004</v>
       </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
       <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
         <v>1.1308238630462388</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>4.7059413274129218</v>
       </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
       <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
         <v>8.3229100000000003</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>8.5</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>10.180466666666666</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>10</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>0.10444177549293009</v>
       </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
       <c r="T60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -7044,53 +7591,56 @@
         <v>26737.047919174121</v>
       </c>
       <c r="G61">
+        <v>1.300538</v>
+      </c>
+      <c r="H61">
         <v>9.0458809999999996</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>14.51839</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>52.026583870000003</v>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
       <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
         <v>0.60643824748818953</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>3.3738637268543239</v>
       </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
       <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
         <v>5.5</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>7.66</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>9.6894500000000008</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>7.4166670000000003</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>8.1482789205757147E-2</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
       <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
         <v>2</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -7110,53 +7660,56 @@
         <v>31992.991232984557</v>
       </c>
       <c r="G62">
+        <v>6.2556659999999997</v>
+      </c>
+      <c r="H62">
         <v>14.720725</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>48.130634999999998</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>108.7023715</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
       <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
         <v>0.79807442492306468</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>4.3303627649943026</v>
       </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
       <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
         <v>7.6354100000000003</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>6.09</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>9.1873300000000011</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>6.7272730000000003</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>5.5705961858613602E-2</v>
       </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
       <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
         <v>2</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -7176,53 +7729,56 @@
         <v>36122.697273773265</v>
       </c>
       <c r="G63">
+        <v>3.1833870000000002</v>
+      </c>
+      <c r="H63">
         <v>16.879909999999999</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>40.833354999999997</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>85.291331200000002</v>
       </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
       <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
         <v>0.55484261736391416</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>5.5830366770426432</v>
       </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
       <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
         <v>9.2604100000000003</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>7.56</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>10.769500000000001</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>8.2799999999999994</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>6.5118351043791392E-2</v>
       </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
       <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
         <v>2</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -7242,53 +7798,56 @@
         <v>34999.565852236003</v>
       </c>
       <c r="G64">
+        <v>6.4564529999999998</v>
+      </c>
+      <c r="H64">
         <v>9.0244415</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>33.362819999999999</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>65.59736848</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
       <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
         <v>0.26900461504909978</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>4.4209193547566716</v>
       </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
       <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
         <v>8.1953099999999992</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>6.16</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>10.09539</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>10</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>6.6646548726625301E-2</v>
       </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
       <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
         <v>2</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -7308,53 +7867,56 @@
         <v>27863.444583794484</v>
       </c>
       <c r="G65">
+        <v>9.7076460000000004</v>
+      </c>
+      <c r="H65">
         <v>18.279357000000001</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>36.09975</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>148.31715320000001</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
       <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
         <v>0.81346713877843901</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>5.9294014894045324</v>
       </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
         <v>79</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>8.41</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>8.4367666666666654</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>9.52</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>1.9723407700392451E-2</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -7374,28 +7936,28 @@
         <v>53933.678944858038</v>
       </c>
       <c r="G66">
+        <v>5.9497540000000004</v>
+      </c>
+      <c r="H66">
         <v>17.837054999999999</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>70.922650000000004</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>86.632332480000002</v>
       </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
       <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
         <v>1.0123783974373497</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>3.4877200126647936</v>
       </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66" t="s">
-        <v>79</v>
+      <c r="N66">
+        <v>1</v>
       </c>
       <c r="O66" t="s">
         <v>79</v>
@@ -7403,24 +7965,27 @@
       <c r="P66" t="s">
         <v>79</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" t="s">
+        <v>79</v>
+      </c>
+      <c r="R66">
         <v>10</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>2.0919916248491006E-2</v>
       </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
       <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
         <v>2</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -7440,53 +8005,56 @@
         <v>20472.575293073645</v>
       </c>
       <c r="G67">
+        <v>2.0096479999999999</v>
+      </c>
+      <c r="H67">
         <v>9.0339224999999903</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>13.429385</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>36.948853739999997</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>0.66666666666666596</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>-8.079296309862373E-2</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>5.0030020078023272</v>
       </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67" t="s">
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
         <v>79</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>8.7100000000000009</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>10.910226666666667</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>0.58399714590259955</v>
       </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
       <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
         <v>3</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -7506,53 +8074,56 @@
         <v>23492.290392845531</v>
       </c>
       <c r="G68">
+        <v>2.1458940000000002</v>
+      </c>
+      <c r="H68">
         <v>9.7520804999999999</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>47.367715000000004</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>97.347650819999998</v>
       </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
       <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
         <v>0.76025111891644248</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>5.4318443707057398</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68" t="s">
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
         <v>79</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>6.77</v>
-      </c>
-      <c r="P68" t="s">
-        <v>79</v>
       </c>
       <c r="Q68" t="s">
         <v>79</v>
       </c>
-      <c r="R68">
-        <v>0</v>
+      <c r="R68" t="s">
+        <v>79</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
         <v>2</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -7572,53 +8143,56 @@
         <v>44016.185392227824</v>
       </c>
       <c r="G69">
+        <v>4.1001640000000004</v>
+      </c>
+      <c r="H69">
         <v>12.57522</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>37.509640000000005</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>100.4726265</v>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
       <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
         <v>0.62474108084538349</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>4.945076020558675</v>
       </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
       <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
         <v>9.8125</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>8.61</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>11.469700000000001</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>10</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>0.43151508074558442</v>
       </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
       <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
         <v>2</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -7638,53 +8212,56 @@
         <v>45235.942666793548</v>
       </c>
       <c r="G70">
+        <v>1.679325</v>
+      </c>
+      <c r="H70">
         <v>10.775055</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>39.543689999999998</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>92.746836639999998</v>
       </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
       <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
         <v>0.27836659279253995</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>5.5246839841206876</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
       <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
         <v>9.4479100000000003</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>8.2200000000000006</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>11.472633333333334</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>10</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>2.5164651643087508</v>
       </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
       <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
         <v>3</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -7704,53 +8281,56 @@
         <v>20806.12906932065</v>
       </c>
       <c r="G71">
+        <v>1.7993669999999999</v>
+      </c>
+      <c r="H71">
         <v>14.2338325</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>17.221134999999997</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>25.71652083</v>
       </c>
-      <c r="J71">
-        <v>0.66666666666666596</v>
-      </c>
       <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
         <v>0.40576768895546789</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>5.1728833516438799</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71" t="s">
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
         <v>79</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>9.6</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>79</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>1.76</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>1.2034922443613525</v>
       </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
       <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
         <v>3</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -7770,53 +8350,56 @@
         <v>25537.884404833065</v>
       </c>
       <c r="G72">
+        <v>3.0565440000000001</v>
+      </c>
+      <c r="H72">
         <v>8.8676200000000005</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>29.092124999999999</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>99.955501409999997</v>
       </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
       <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
         <v>0.50106482792953622</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>5.0974600315094003</v>
       </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
       <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
         <v>7.7385400000000004</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>4.33</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>7.1187599999999991</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>8</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>0.16810254656008336</v>
       </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
       <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
         <v>2</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -7836,53 +8419,56 @@
         <v>37665.611185289468</v>
       </c>
       <c r="G73">
+        <v>5.9526950000000003</v>
+      </c>
+      <c r="H73">
         <v>22.728355000000001</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>63.471109999999996</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>70.313075960000006</v>
       </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
       <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
         <v>0.38298095927096976</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>6.1432406221117288</v>
       </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
       <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
         <v>9.6796799999999994</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>9.48</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>11.656433333333334</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>10</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>0.43777268104934497</v>
       </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
       <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
         <v>4</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -7902,53 +8488,56 @@
         <v>41337.714927378664</v>
       </c>
       <c r="G74">
+        <v>4.8312540000000004</v>
+      </c>
+      <c r="H74">
         <v>25.55612</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>49.446510000000004</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>70.626228380000001</v>
       </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
       <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
         <v>0.38419303536325267</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>6.6925639788309743</v>
       </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
       <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
         <v>9.6484299999999994</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>9.57</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>12.0762</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>10</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>0.3147863847380673</v>
       </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
       <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
         <v>4</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -7968,48 +8557,51 @@
         <v>34540.338580400712</v>
       </c>
       <c r="G75">
+        <v>3.294162</v>
+      </c>
+      <c r="H75">
         <v>16.485105000000001</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>56.622195000000005</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>129.2800751</v>
       </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
       <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
         <v>0.30133788508927817</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>4.9441039721171061</v>
       </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
       <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
         <v>9.3385400000000001</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>8.74</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>13.011000000000001</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>10</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>0.66044394450529087</v>
       </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
       <c r="T75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -8053,22 +8645,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s">
         <v>92</v>
@@ -8107,16 +8699,16 @@
         <v>99</v>
       </c>
       <c r="T1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="V1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="W1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -13402,81 +13994,81 @@
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" t="s">
         <v>156</v>
       </c>
-      <c r="J2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" t="s">
-        <v>158</v>
-      </c>
-      <c r="L2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M2" t="s">
-        <v>198</v>
-      </c>
-      <c r="N2" t="s">
-        <v>155</v>
-      </c>
       <c r="O2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B3">
         <v>1.823296</v>
@@ -13553,7 +14145,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B4">
         <v>1.817871</v>
@@ -13630,7 +14222,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B5">
         <v>6.4735680000000002</v>
@@ -13707,7 +14299,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B6">
         <v>-2.7712439999999998</v>
@@ -13784,7 +14376,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B7">
         <v>1.547185</v>
@@ -13861,7 +14453,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B8">
         <v>7.6701000000000005E-2</v>
@@ -13938,7 +14530,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B9">
         <v>4.1405260000000004</v>
@@ -14015,7 +14607,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B11">
         <v>4.0833529999999998</v>
@@ -14092,7 +14684,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B12">
         <v>0.12981100000000001</v>
@@ -14169,7 +14761,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B14">
         <v>134.9239</v>
@@ -14246,7 +14838,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B15">
         <v>174.74600000000001</v>
@@ -14323,7 +14915,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B17">
         <v>74</v>
@@ -14400,30 +14992,30 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H19" t="s">
         <v>233</v>
-      </c>
-      <c r="C19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F19" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" t="s">
-        <v>231</v>
-      </c>
-      <c r="H19" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20">
         <v>0.56306299999999998</v>
@@ -14449,7 +15041,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21">
         <v>0.66666700000000001</v>
@@ -14475,7 +15067,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -14501,7 +15093,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -14527,7 +15119,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B24">
         <v>0.39373200000000003</v>
@@ -14553,7 +15145,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B25">
         <v>-0.23272599999999999</v>
@@ -14579,7 +15171,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26">
         <v>1.56009</v>
@@ -14605,7 +15197,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B28">
         <v>7.0607879999999996</v>
@@ -14631,7 +15223,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B29">
         <v>2.9293E-2</v>
@@ -14657,7 +15249,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B31">
         <v>41.666670000000003</v>
@@ -14683,7 +15275,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B32">
         <v>11.31682</v>
@@ -14709,7 +15301,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B34">
         <v>74</v>
@@ -14760,81 +15352,81 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" t="s">
         <v>156</v>
       </c>
-      <c r="J1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N1" t="s">
-        <v>155</v>
-      </c>
       <c r="O1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14911,7 +15503,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>0.122830267442974</v>
@@ -14988,7 +15580,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>0.47004289027419099</v>
@@ -15065,7 +15657,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B5">
         <v>0.51518526013338495</v>
@@ -15142,7 +15734,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B6">
         <v>-3.2673179692572198E-2</v>
@@ -15219,7 +15811,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>2.8537685843363698E-2</v>
@@ -15296,7 +15888,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B8">
         <v>0.12517944341569001</v>
@@ -15373,7 +15965,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9">
         <v>0.22057099672820499</v>
@@ -15450,7 +16042,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10">
         <v>0.40099320414063899</v>
@@ -15527,7 +16119,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11">
         <v>-0.50846037599515903</v>
@@ -15604,7 +16196,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12">
         <v>-0.40465053279693802</v>
@@ -15681,7 +16273,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B13">
         <v>0.23750734781219399</v>
@@ -15758,7 +16350,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B14">
         <v>0.29686685909105698</v>
@@ -15835,7 +16427,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15">
         <v>0.42315713610385902</v>
@@ -15912,7 +16504,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16">
         <v>0.252374689518858</v>
@@ -15989,7 +16581,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17">
         <v>-0.16193015167306701</v>
@@ -16066,7 +16658,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18">
         <v>-4.9258596247931698E-3</v>
@@ -16143,7 +16735,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19">
         <v>0.12779896555100401</v>
@@ -16220,7 +16812,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20">
         <v>-4.3236775851891097E-2</v>
@@ -16297,7 +16889,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21">
         <v>-0.20373990115971599</v>
@@ -16374,7 +16966,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B22">
         <v>0.35703830195916297</v>
@@ -16451,7 +17043,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23">
         <v>2.0111878394422598E-2</v>
@@ -16528,7 +17120,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24">
         <v>-0.28527998604436999</v>
@@ -16605,7 +17197,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25">
         <v>-0.21926051654527701</v>
@@ -16682,18 +17274,18 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -16707,7 +17299,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B29">
         <v>0.53053307939465499</v>
@@ -16721,7 +17313,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B30">
         <v>-3.6307099484659102E-3</v>
@@ -16742,7 +17334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -16756,60 +17348,60 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="N18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U25" t="s">
+        <v>176</v>
+      </c>
+      <c r="V25" t="s">
+        <v>173</v>
+      </c>
+      <c r="W25" t="s">
+        <v>174</v>
+      </c>
+      <c r="X25" t="s">
         <v>175</v>
       </c>
-      <c r="V25" t="s">
-        <v>172</v>
-      </c>
-      <c r="W25" t="s">
-        <v>173</v>
-      </c>
-      <c r="X25" t="s">
-        <v>174</v>
-      </c>
       <c r="Y25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -16817,7 +17409,7 @@
         <v>0.63070000000000004</v>
       </c>
       <c r="V27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="W27">
         <v>1.4081589999999999</v>
@@ -16834,13 +17426,13 @@
         <v>0.63070000000000004</v>
       </c>
       <c r="V28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="W28">
         <v>1.9829110000000001</v>
       </c>
       <c r="X28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y28">
         <v>0.16339999999999999</v>
@@ -16851,7 +17443,7 @@
         <v>0.62919999999999998</v>
       </c>
       <c r="V29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="W29">
         <v>1.9829110000000001</v>
@@ -16865,31 +17457,31 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="21:25" x14ac:dyDescent="0.25">
       <c r="U34" t="s">
+        <v>181</v>
+      </c>
+      <c r="V34" t="s">
         <v>180</v>
       </c>
-      <c r="V34" t="s">
-        <v>179</v>
-      </c>
       <c r="X34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="21:25" x14ac:dyDescent="0.25">
@@ -16897,7 +17489,7 @@
         <v>1.7170589999999999</v>
       </c>
       <c r="V36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X36">
         <v>0.131714</v>
@@ -16908,7 +17500,7 @@
     </row>
     <row r="38" spans="21:25" x14ac:dyDescent="0.25">
       <c r="V38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -16932,29 +17524,29 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M2" s="6"/>
       <c r="T2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="7:20" x14ac:dyDescent="0.25">
       <c r="T18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -16967,8 +17559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16982,24 +17574,24 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -17030,30 +17622,30 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -17064,17 +17656,17 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="7:20" x14ac:dyDescent="0.25">
       <c r="T27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
